--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,143 +394,143 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -690,9 +690,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -703,7 +711,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -723,239 +731,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -963,7 +971,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -971,7 +979,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -979,7 +987,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -987,7 +995,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -995,7 +1003,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1003,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1011,7 +1019,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1019,9 +1027,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1032,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,247 +1068,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1300,7 +1316,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1308,7 +1324,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1316,7 +1332,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1324,7 +1340,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1332,7 +1348,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1340,7 +1356,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1348,9 +1364,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1361,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1381,255 +1405,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1637,7 +1661,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1645,7 +1669,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1653,7 +1677,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1661,7 +1685,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1669,7 +1693,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1677,9 +1701,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1690,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1710,263 +1742,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1974,7 +2006,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1982,7 +2014,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1990,7 +2022,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1998,7 +2030,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2006,9 +2038,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2019,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,263 +2079,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2303,7 +2343,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2311,7 +2351,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2319,7 +2359,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2327,7 +2367,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2335,9 +2375,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2348,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2368,271 +2416,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2640,7 +2688,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2648,7 +2696,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2656,7 +2704,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2664,9 +2712,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2677,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2697,279 +2753,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2977,7 +3033,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2985,7 +3041,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2993,9 +3049,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3006,7 +3070,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,279 +3090,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3306,7 +3370,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3314,7 +3378,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3322,9 +3386,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3335,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3355,287 +3427,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3643,7 +3715,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3651,9 +3723,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3664,7 +3744,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3684,287 +3764,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3972,7 +4052,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3980,9 +4060,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3993,7 +4081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4013,159 +4101,159 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -4173,7 +4261,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -4181,7 +4269,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -4189,7 +4277,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -4197,7 +4285,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -4205,7 +4293,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -4213,7 +4301,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -4221,7 +4309,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -4229,7 +4317,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -4237,7 +4325,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4245,7 +4333,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4253,7 +4341,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4261,7 +4349,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4269,7 +4357,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4277,7 +4365,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4285,7 +4373,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4293,7 +4381,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4301,7 +4389,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4309,9 +4397,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4322,7 +4418,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4342,287 +4438,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4630,7 +4726,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4638,9 +4734,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4651,7 +4755,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4671,287 +4775,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4959,7 +5063,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4967,9 +5071,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4980,7 +5092,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5000,287 +5112,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5288,7 +5400,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5296,9 +5408,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5309,7 +5429,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5329,287 +5449,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5617,7 +5737,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5625,9 +5745,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5638,7 +5766,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5658,287 +5786,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5946,7 +6074,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5954,9 +6082,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5967,7 +6103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5987,175 +6123,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -6163,7 +6299,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -6171,7 +6307,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -6179,7 +6315,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -6187,7 +6323,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6195,7 +6331,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6203,7 +6339,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6211,7 +6347,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6219,7 +6355,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6227,7 +6363,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6235,7 +6371,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6243,7 +6379,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6251,7 +6387,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6259,7 +6395,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6267,7 +6403,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6275,7 +6411,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6283,9 +6419,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -6296,7 +6440,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6316,183 +6460,183 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -6500,7 +6644,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -6508,7 +6652,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -6516,7 +6660,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6524,7 +6668,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6532,7 +6676,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6540,7 +6684,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6548,7 +6692,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6556,7 +6700,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6564,7 +6708,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6572,7 +6716,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6580,7 +6724,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6588,7 +6732,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6596,7 +6740,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6604,7 +6748,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6612,9 +6756,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -6625,7 +6777,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6645,191 +6797,191 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -6837,7 +6989,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -6845,7 +6997,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6853,7 +7005,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6861,7 +7013,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6869,7 +7021,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6877,7 +7029,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6885,7 +7037,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6893,7 +7045,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6901,7 +7053,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6909,7 +7061,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6917,7 +7069,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6925,7 +7077,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6933,7 +7085,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6941,9 +7093,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -6954,7 +7114,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6974,207 +7134,207 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -7182,7 +7342,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -7190,7 +7350,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -7198,7 +7358,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -7206,7 +7366,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -7214,7 +7374,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -7222,7 +7382,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -7230,7 +7390,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7238,7 +7398,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7246,7 +7406,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7254,7 +7414,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7262,7 +7422,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7270,9 +7430,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -7283,7 +7451,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7303,215 +7471,215 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -7519,7 +7687,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -7527,7 +7695,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -7535,7 +7703,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -7543,7 +7711,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -7551,7 +7719,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -7559,7 +7727,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7567,7 +7735,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7575,7 +7743,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7583,7 +7751,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7591,7 +7759,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7599,9 +7767,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -7612,7 +7788,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7632,223 +7808,223 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -7856,7 +8032,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -7864,7 +8040,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -7872,7 +8048,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -7880,7 +8056,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -7888,7 +8064,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7896,7 +8072,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7904,7 +8080,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7912,7 +8088,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7920,7 +8096,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7928,9 +8104,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -7941,7 +8125,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7961,231 +8145,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -8193,7 +8377,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -8201,7 +8385,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -8209,7 +8393,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -8217,7 +8401,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -8225,7 +8409,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -8233,7 +8417,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -8241,7 +8425,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -8249,7 +8433,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -8257,9 +8441,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -822,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -870,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -918,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
@@ -926,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -934,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -942,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -958,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1135,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -1183,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -1199,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -1215,7 +1215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -1247,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -1255,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -1279,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1287,7 +1287,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -1295,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1303,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -1311,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1440,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1456,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1496,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1512,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1520,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1536,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1552,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1560,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -1568,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1576,7 +1576,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -1584,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -1608,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1616,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -1624,7 +1624,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -1632,7 +1632,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1640,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -1648,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1793,7 +1793,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1809,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1817,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1825,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1833,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1857,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -1865,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -1881,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1889,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1897,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1905,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1913,7 +1913,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1937,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1953,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -1961,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1969,7 +1969,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -1977,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1985,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -1993,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2130,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2138,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2146,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2154,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -2162,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2186,7 +2186,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2210,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2218,7 +2218,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -2234,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -2266,7 +2266,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -2274,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -2282,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -2306,7 +2306,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -2314,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -2322,7 +2322,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2330,7 +2330,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -2338,7 +2338,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2443,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2451,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2459,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2475,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -2491,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2499,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -2507,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -2515,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -2523,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2531,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2555,7 +2555,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -2563,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -2579,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -2587,7 +2587,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -2611,7 +2611,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -2619,7 +2619,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -2627,7 +2627,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -2635,7 +2635,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -2643,7 +2643,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -2651,7 +2651,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -2659,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -2667,7 +2667,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2675,7 +2675,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -2683,7 +2683,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2780,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2796,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -2804,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -2812,7 +2812,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -2844,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -2852,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2860,7 +2860,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -2868,7 +2868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -2876,7 +2876,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -2908,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2932,7 +2932,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -2948,7 +2948,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -2956,7 +2956,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2964,7 +2964,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -2972,7 +2972,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -2980,7 +2980,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -2988,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -2996,7 +2996,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -3004,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -3012,7 +3012,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -3020,7 +3020,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3109,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3117,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3133,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3149,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -3157,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -3165,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -3189,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -3197,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3205,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -3213,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3221,7 +3221,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3253,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -3261,7 +3261,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -3277,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -3293,7 +3293,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -3301,7 +3301,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -3309,7 +3309,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -3317,7 +3317,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -3325,7 +3325,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -3333,7 +3333,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -3341,7 +3341,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -3349,7 +3349,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3454,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3470,7 +3470,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -3478,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -3486,7 +3486,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -3502,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -3510,7 +3510,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -3550,7 +3550,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -3558,7 +3558,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3598,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -3622,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -3646,7 +3646,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -3654,7 +3654,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -3662,7 +3662,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -3678,7 +3678,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -3686,7 +3686,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -3694,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -3702,7 +3702,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3791,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3799,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -3807,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -3823,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -3831,7 +3831,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -3847,7 +3847,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -3855,7 +3855,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -3863,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -3943,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -3975,7 +3975,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -4007,7 +4007,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4015,7 +4015,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -4023,7 +4023,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -4031,7 +4031,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -4039,7 +4039,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -4120,7 +4120,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -4152,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -4160,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -4168,7 +4168,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -4176,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -4184,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -4192,7 +4192,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -4200,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -4208,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -4216,7 +4216,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -4224,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -4489,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -4497,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -4513,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -4537,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -4545,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -4641,7 +4641,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4665,7 +4665,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -4673,7 +4673,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -4681,7 +4681,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -4689,7 +4689,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -4697,7 +4697,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -4705,7 +4705,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4721,7 +4721,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -4802,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -4810,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -4826,7 +4826,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -4842,7 +4842,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -4858,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -4866,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -4890,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -4898,7 +4898,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -4994,7 +4994,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -5002,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -5010,7 +5010,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -5018,7 +5018,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -5026,7 +5026,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -5034,7 +5034,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -5042,7 +5042,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -5050,7 +5050,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -5058,7 +5058,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -5131,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -5139,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -5155,7 +5155,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -5171,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -5187,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -5211,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -5243,7 +5243,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -5291,7 +5291,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -5331,7 +5331,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -5363,7 +5363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -5371,7 +5371,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -5379,7 +5379,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -5387,7 +5387,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -5395,7 +5395,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -5476,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -5492,7 +5492,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -5508,7 +5508,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -5524,7 +5524,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -5540,7 +5540,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -5564,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -5604,7 +5604,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -5612,7 +5612,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -5668,7 +5668,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5700,7 +5700,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -5708,7 +5708,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -5716,7 +5716,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -5724,7 +5724,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -5732,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -5813,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -5821,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -5837,7 +5837,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -5853,7 +5853,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -5869,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -6045,7 +6045,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -6053,7 +6053,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -6061,7 +6061,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -6069,7 +6069,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -6142,7 +6142,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -6150,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -6158,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -6166,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -6174,7 +6174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -6182,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -6190,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -6198,7 +6198,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -6206,7 +6206,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -6214,7 +6214,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -6222,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -6230,7 +6230,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -6238,7 +6238,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -6246,7 +6246,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -6479,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -6495,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -6503,7 +6503,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -6511,7 +6511,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -6519,7 +6519,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -6527,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -6535,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -6543,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -6551,7 +6551,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -6559,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -6567,7 +6567,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -6575,7 +6575,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -6583,7 +6583,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -6599,7 +6599,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -6607,7 +6607,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -6615,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -6623,7 +6623,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -6631,7 +6631,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -6816,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -6824,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -6832,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -6840,7 +6840,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -6848,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -6856,7 +6856,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -6864,7 +6864,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -6872,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -6880,7 +6880,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -6888,7 +6888,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -6896,7 +6896,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -6904,7 +6904,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -6912,7 +6912,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -6920,7 +6920,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -6928,7 +6928,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -6936,7 +6936,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -6944,7 +6944,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -6952,7 +6952,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -6968,7 +6968,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -6976,7 +6976,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -6984,7 +6984,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -7161,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -7169,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -7177,7 +7177,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -7185,7 +7185,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -7201,7 +7201,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -7209,7 +7209,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -7217,7 +7217,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -7225,7 +7225,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -7233,7 +7233,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -7241,7 +7241,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -7249,7 +7249,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -7257,7 +7257,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -7265,7 +7265,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -7273,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -7281,7 +7281,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -7289,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -7297,7 +7297,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -7313,7 +7313,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -7321,7 +7321,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -7329,7 +7329,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -7490,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -7498,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -7506,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -7514,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -7522,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -7530,7 +7530,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -7538,7 +7538,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -7546,7 +7546,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -7554,7 +7554,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -7562,7 +7562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -7570,7 +7570,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -7578,7 +7578,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -7586,7 +7586,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -7594,7 +7594,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -7602,7 +7602,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -7610,7 +7610,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -7618,7 +7618,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -7634,7 +7634,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -7642,7 +7642,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -7650,7 +7650,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -7658,7 +7658,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -7666,7 +7666,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -7674,7 +7674,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -7827,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -7835,7 +7835,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -7843,7 +7843,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -7851,7 +7851,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -7859,7 +7859,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -7867,7 +7867,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -7875,7 +7875,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -7883,7 +7883,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -7891,7 +7891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -7899,7 +7899,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -7907,7 +7907,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -7923,7 +7923,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -7931,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -7939,7 +7939,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -7947,7 +7947,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -7955,7 +7955,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -7963,7 +7963,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -7971,7 +7971,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -7987,7 +7987,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -7995,7 +7995,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -8003,7 +8003,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -8011,7 +8011,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -8019,7 +8019,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -8164,7 +8164,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -8172,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -8180,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -8188,7 +8188,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -8196,7 +8196,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -8204,7 +8204,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -8212,7 +8212,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -8220,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -8228,7 +8228,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -8236,7 +8236,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -8244,7 +8244,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -8260,7 +8260,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -8276,7 +8276,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -8284,7 +8284,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -8292,7 +8292,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -8300,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -8308,7 +8308,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -8316,7 +8316,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -8324,7 +8324,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -8332,7 +8332,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -8340,7 +8340,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -8348,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -8356,7 +8356,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -8364,7 +8364,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -8372,7 +8372,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
